--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1863.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1863.xlsx
@@ -357,7 +357,7 @@
         <v>1.447855582177931</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>2.187519764105677</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1863.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1863.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2073174022213128</v>
+        <v>1.565802097320557</v>
       </c>
       <c r="B1">
-        <v>0.3682712819536196</v>
+        <v>2.702942371368408</v>
       </c>
       <c r="C1">
-        <v>1.447855582177931</v>
+        <v>3.072072267532349</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.874539613723755</v>
       </c>
       <c r="E1">
-        <v>2.187519764105677</v>
+        <v>3.051093816757202</v>
       </c>
     </row>
   </sheetData>
